--- a/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,33 +452,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45439</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45453</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -493,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,23 +547,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -539,9 +571,33 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>2</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -599,6 +600,271 @@
       </c>
       <c r="B8" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.40483086293381</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.8716719724089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.858343755917884</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.17665943757281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05771065514652022</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.03017054758494</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1942795340123153</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.84940735927947</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.779565830941698</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.938506372875452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.464980287766346</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.766793656133545</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.270455225219909</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.940243676812578</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.255079425087972</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.098491964366521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-9.221714043280418</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.31007090203313</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-10.03780010051571</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.105417586595926</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.601151319244966</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.63406108430252</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-9.956765288764707</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.845843438567847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-10.4902044876572</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.86988097211466</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-11.21754634890443</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.524434308119087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.11326277901473</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.684844727358232</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.38174437906546</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.008556273181491</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
@@ -613,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +632,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -650,12 +640,6 @@
       <c r="B2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
-        <v>13.40483086293381</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.8716719724089</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -664,12 +648,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.858343755917884</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.17665943757281</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -678,12 +656,6 @@
       <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.05771065514652022</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.03017054758494</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -692,12 +664,6 @@
       <c r="B5" t="n">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>-0.1942795340123153</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.84940735927947</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -706,12 +672,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-3.779565830941698</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.938506372875452</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -720,12 +680,6 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.464980287766346</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.766793656133545</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -734,12 +688,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-8.270455225219909</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.940243676812578</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -748,12 +696,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.255079425087972</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.098491964366521</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -762,12 +704,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-9.221714043280418</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.31007090203313</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -776,12 +712,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-10.03780010051571</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.105417586595926</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -790,12 +720,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.601151319244966</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.63406108430252</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -804,12 +728,6 @@
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" t="n">
-        <v>-9.956765288764707</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.845843438567847</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -818,12 +736,6 @@
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>-10.4902044876572</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.86988097211466</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -832,12 +744,6 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>-11.21754634890443</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.524434308119087</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -846,12 +752,6 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.11326277901473</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.684844727358232</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -859,12 +759,6 @@
       </c>
       <c r="B17" t="n">
         <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-11.38174437906546</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.008556273181491</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
+++ b/po_analysis_by_asin/B0B5YKGWXS_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -526,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +610,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -613,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,7 +654,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -646,7 +662,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -654,7 +670,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -662,7 +678,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -670,7 +686,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -678,7 +694,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +702,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -694,28 +710,28 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -723,7 +739,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -731,7 +747,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -739,7 +755,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -747,17 +763,25 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
